--- a/botCode/workWithExcelFile/excelDatabase/9class/М-9-2, Ф-9-2, Р-9-3-1.xlsx
+++ b/botCode/workWithExcelFile/excelDatabase/9class/М-9-2, Ф-9-2, Р-9-3-1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12915"/>
   </bookViews>
   <sheets>
     <sheet name="М-9-2, Ф-9-2, Р-9-3-1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="46">
   <si>
     <t>Вторник</t>
   </si>
@@ -38,22 +38,19 @@
     <t>Учитель</t>
   </si>
   <si>
-    <t>Кабинет</t>
-  </si>
-  <si>
     <t>Горбатенко Даниил Константинович</t>
   </si>
   <si>
-    <t>Алгебра</t>
+    <t>геометрия</t>
   </si>
   <si>
     <t>М-9-2</t>
   </si>
   <si>
-    <t>Панькина/Щербина</t>
-  </si>
-  <si>
-    <t>201/403</t>
+    <t>Рязанский</t>
+  </si>
+  <si>
+    <t>Zoom</t>
   </si>
   <si>
     <t>физика</t>
@@ -65,82 +62,88 @@
     <t>Жихарева</t>
   </si>
   <si>
-    <t>биология</t>
+    <t>Урок для практических занятий (классрум на время)</t>
+  </si>
+  <si>
+    <t>Classroom+Zoom</t>
+  </si>
+  <si>
+    <t>Физика</t>
+  </si>
+  <si>
+    <t>Информатика</t>
+  </si>
+  <si>
+    <t>география</t>
   </si>
   <si>
     <t>Р-9-3</t>
   </si>
   <si>
+    <t>Аксенова</t>
+  </si>
+  <si>
+    <t>Русский</t>
+  </si>
+  <si>
+    <t>Симонян</t>
+  </si>
+  <si>
+    <t>Среда</t>
+  </si>
+  <si>
+    <t>Спецмат</t>
+  </si>
+  <si>
+    <t>литература</t>
+  </si>
+  <si>
+    <t>Перхулова</t>
+  </si>
+  <si>
+    <t>Английский</t>
+  </si>
+  <si>
+    <t>Четверг</t>
+  </si>
+  <si>
+    <t>информатика</t>
+  </si>
+  <si>
+    <t>Киселева</t>
+  </si>
+  <si>
+    <t>обществознание</t>
+  </si>
+  <si>
+    <t>Жигулин</t>
+  </si>
+  <si>
+    <t>алгебра</t>
+  </si>
+  <si>
+    <t>Панькина</t>
+  </si>
+  <si>
+    <t>Биология</t>
+  </si>
+  <si>
     <t>Смолянова</t>
   </si>
   <si>
-    <t>география</t>
-  </si>
-  <si>
-    <t>Русский</t>
-  </si>
-  <si>
-    <t>Симонян</t>
-  </si>
-  <si>
-    <t>физ-ра</t>
-  </si>
-  <si>
-    <t>спорт.зал</t>
-  </si>
-  <si>
-    <t>информатика</t>
+    <t>Пятница</t>
+  </si>
+  <si>
+    <t>Геометрия</t>
+  </si>
+  <si>
+    <t>Р-9-2,3</t>
+  </si>
+  <si>
+    <t>Английский язык</t>
   </si>
   <si>
     <t>Р-9-3-1</t>
-  </si>
-  <si>
-    <t>Киселева</t>
-  </si>
-  <si>
-    <t>Среда</t>
-  </si>
-  <si>
-    <t>Английский</t>
-  </si>
-  <si>
-    <t>Р-9-2,3</t>
-  </si>
-  <si>
-    <t>см.таблицу после субботы</t>
-  </si>
-  <si>
-    <t>литература</t>
-  </si>
-  <si>
-    <t>Перхулова</t>
-  </si>
-  <si>
-    <t>геометрия</t>
-  </si>
-  <si>
-    <t>Рязанский</t>
-  </si>
-  <si>
-    <t>Четверг</t>
-  </si>
-  <si>
-    <t>обществознание</t>
-  </si>
-  <si>
-    <t>Жигулин</t>
-  </si>
-  <si>
-    <t>алгебра</t>
-  </si>
-  <si>
-    <t>Панькина</t>
-  </si>
-  <si>
-    <t>Пятница</t>
-  </si>
-  <si>
-    <t>Биология</t>
   </si>
   <si>
     <t>Суббота</t>
@@ -165,7 +168,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,13 +178,43 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,12 +223,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D2E9"/>
-        <bgColor rgb="FFD9D2E9"/>
+        <fgColor rgb="FFF4B084"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -244,6 +283,34 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right/>
@@ -262,24 +329,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -289,19 +343,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -317,43 +394,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="9077325" cy="2781300"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png" title="Изображение"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="12011025"/>
-          <a:ext cx="9077325" cy="2781300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -620,10 +660,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист17"/>
-  <dimension ref="A1:G1000"/>
+  <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -632,13 +672,13 @@
     <col min="2" max="2" width="16.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="19.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="22.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19" style="3" customWidth="1"/>
+    <col min="6" max="6" width="31.875" style="3" customWidth="1"/>
     <col min="7" max="7" width="30.875" style="3" customWidth="1"/>
     <col min="8" max="16384" width="12.625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -647,7 +687,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -658,96 +698,96 @@
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="4"/>
+      <c r="G2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E3" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E4" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="4">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E5" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="F6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="4">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="4">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -755,74 +795,64 @@
         <v>16</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="4">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="4">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>1</v>
@@ -833,60 +863,59 @@
       <c r="D14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>1</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>2</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="4">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>3</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="4">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>4</v>
       </c>
@@ -894,65 +923,64 @@
         <v>25</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>5</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="4">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>6</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="4">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>7</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="4">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>8</v>
       </c>
@@ -961,7 +989,7 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>9</v>
       </c>
@@ -970,20 +998,20 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>1</v>
@@ -994,147 +1022,129 @@
       <c r="D26" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>1</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="4">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>2</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="4">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>3</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="4">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>4</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="4">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>5</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" s="4">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>6</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32" s="4">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>7</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="4">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>8</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="4">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>9</v>
       </c>
@@ -1143,20 +1153,20 @@
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="E36" s="7"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="E36" s="15"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
         <v>1</v>
@@ -1167,45 +1177,42 @@
       <c r="D38" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>1</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" s="4" t="s">
+      <c r="B39" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E39" s="4">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E39" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>2</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E40" s="4">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>3</v>
       </c>
@@ -1213,82 +1220,73 @@
         <v>25</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E41" s="11"/>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>4</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E42" s="4">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>5</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E43" s="4">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>6</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="D44" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E44" s="4">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>7</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" s="4">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="8"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>8</v>
       </c>
@@ -1297,7 +1295,7 @@
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>9</v>
       </c>
@@ -1306,20 +1304,20 @@
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
     </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="E48" s="7"/>
-    </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="E48" s="15"/>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
     </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
         <v>1</v>
@@ -1330,130 +1328,119 @@
       <c r="D50" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>1</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E51" s="4">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>2</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E52" s="4">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>3</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E53" s="4">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>4</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E54" s="4">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>5</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E55" s="4">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>6</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E56" s="4">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>7</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E57" s="4">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>8</v>
       </c>
@@ -1462,7 +1449,7 @@
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
     </row>
-    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>9</v>
       </c>
@@ -1471,605 +1458,605 @@
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
     </row>
-    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E60" s="7"/>
-    </row>
-    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E61" s="7"/>
-    </row>
-    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E62" s="7"/>
-    </row>
-    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E63" s="7"/>
-    </row>
-    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E64" s="7"/>
+    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E60" s="15"/>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E61" s="15"/>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E62" s="15"/>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E63" s="15"/>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E64" s="15"/>
     </row>
     <row r="65" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E65" s="7"/>
+      <c r="E65" s="15"/>
     </row>
     <row r="66" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E66" s="7"/>
+      <c r="E66" s="15"/>
     </row>
     <row r="67" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E67" s="7"/>
+      <c r="E67" s="15"/>
     </row>
     <row r="68" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E68" s="7"/>
+      <c r="E68" s="15"/>
     </row>
     <row r="69" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E69" s="7"/>
+      <c r="E69" s="15"/>
     </row>
     <row r="70" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E70" s="7"/>
+      <c r="E70" s="15"/>
     </row>
     <row r="71" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E71" s="7"/>
+      <c r="E71" s="15"/>
     </row>
     <row r="72" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E72" s="7"/>
+      <c r="E72" s="15"/>
     </row>
     <row r="73" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E73" s="7"/>
+      <c r="E73" s="15"/>
     </row>
     <row r="74" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E74" s="7"/>
+      <c r="E74" s="15"/>
     </row>
     <row r="75" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E75" s="7"/>
+      <c r="E75" s="15"/>
     </row>
     <row r="76" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E76" s="7"/>
+      <c r="E76" s="15"/>
     </row>
     <row r="77" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E77" s="7"/>
+      <c r="E77" s="15"/>
     </row>
     <row r="78" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E78" s="7"/>
+      <c r="E78" s="15"/>
     </row>
     <row r="79" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E79" s="7"/>
+      <c r="E79" s="15"/>
     </row>
     <row r="80" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E80" s="7"/>
+      <c r="E80" s="15"/>
     </row>
     <row r="81" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E81" s="7"/>
+      <c r="E81" s="15"/>
     </row>
     <row r="82" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E82" s="7"/>
+      <c r="E82" s="15"/>
     </row>
     <row r="83" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E83" s="7"/>
+      <c r="E83" s="15"/>
     </row>
     <row r="84" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E84" s="7"/>
+      <c r="E84" s="15"/>
     </row>
     <row r="85" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E85" s="7"/>
+      <c r="E85" s="15"/>
     </row>
     <row r="86" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E86" s="7"/>
+      <c r="E86" s="15"/>
     </row>
     <row r="87" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E87" s="7"/>
+      <c r="E87" s="15"/>
     </row>
     <row r="88" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E88" s="7"/>
+      <c r="E88" s="15"/>
     </row>
     <row r="89" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E89" s="7"/>
+      <c r="E89" s="15"/>
     </row>
     <row r="90" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E90" s="7"/>
+      <c r="E90" s="15"/>
     </row>
     <row r="91" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E91" s="7"/>
+      <c r="E91" s="15"/>
     </row>
     <row r="92" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E92" s="7"/>
+      <c r="E92" s="15"/>
     </row>
     <row r="93" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E93" s="7"/>
+      <c r="E93" s="15"/>
     </row>
     <row r="94" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E94" s="7"/>
+      <c r="E94" s="15"/>
     </row>
     <row r="95" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E95" s="7"/>
+      <c r="E95" s="15"/>
     </row>
     <row r="96" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E96" s="7"/>
+      <c r="E96" s="15"/>
     </row>
     <row r="97" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E97" s="7"/>
+      <c r="E97" s="15"/>
     </row>
     <row r="98" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E98" s="7"/>
+      <c r="E98" s="15"/>
     </row>
     <row r="99" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E99" s="7"/>
+      <c r="E99" s="15"/>
     </row>
     <row r="100" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E100" s="7"/>
+      <c r="E100" s="15"/>
     </row>
     <row r="101" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E101" s="7"/>
+      <c r="E101" s="15"/>
     </row>
     <row r="102" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E102" s="7"/>
+      <c r="E102" s="15"/>
     </row>
     <row r="103" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E103" s="7"/>
+      <c r="E103" s="15"/>
     </row>
     <row r="104" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E104" s="7"/>
+      <c r="E104" s="15"/>
     </row>
     <row r="105" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E105" s="7"/>
+      <c r="E105" s="15"/>
     </row>
     <row r="106" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E106" s="7"/>
+      <c r="E106" s="15"/>
     </row>
     <row r="107" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E107" s="7"/>
+      <c r="E107" s="15"/>
     </row>
     <row r="108" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E108" s="7"/>
+      <c r="E108" s="15"/>
     </row>
     <row r="109" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E109" s="7"/>
+      <c r="E109" s="15"/>
     </row>
     <row r="110" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E110" s="7"/>
+      <c r="E110" s="15"/>
     </row>
     <row r="111" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E111" s="7"/>
+      <c r="E111" s="15"/>
     </row>
     <row r="112" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E112" s="7"/>
+      <c r="E112" s="15"/>
     </row>
     <row r="113" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E113" s="7"/>
+      <c r="E113" s="15"/>
     </row>
     <row r="114" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E114" s="7"/>
+      <c r="E114" s="15"/>
     </row>
     <row r="115" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E115" s="7"/>
+      <c r="E115" s="15"/>
     </row>
     <row r="116" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E116" s="7"/>
+      <c r="E116" s="15"/>
     </row>
     <row r="117" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E117" s="7"/>
+      <c r="E117" s="15"/>
     </row>
     <row r="118" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E118" s="7"/>
+      <c r="E118" s="15"/>
     </row>
     <row r="119" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E119" s="7"/>
+      <c r="E119" s="15"/>
     </row>
     <row r="120" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E120" s="7"/>
+      <c r="E120" s="15"/>
     </row>
     <row r="121" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E121" s="7"/>
+      <c r="E121" s="15"/>
     </row>
     <row r="122" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E122" s="7"/>
+      <c r="E122" s="15"/>
     </row>
     <row r="123" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E123" s="7"/>
+      <c r="E123" s="15"/>
     </row>
     <row r="124" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E124" s="7"/>
+      <c r="E124" s="15"/>
     </row>
     <row r="125" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E125" s="7"/>
+      <c r="E125" s="15"/>
     </row>
     <row r="126" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E126" s="7"/>
+      <c r="E126" s="15"/>
     </row>
     <row r="127" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E127" s="7"/>
+      <c r="E127" s="15"/>
     </row>
     <row r="128" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E128" s="7"/>
+      <c r="E128" s="15"/>
     </row>
     <row r="129" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E129" s="7"/>
+      <c r="E129" s="15"/>
     </row>
     <row r="130" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E130" s="7"/>
+      <c r="E130" s="15"/>
     </row>
     <row r="131" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E131" s="7"/>
+      <c r="E131" s="15"/>
     </row>
     <row r="132" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E132" s="7"/>
+      <c r="E132" s="15"/>
     </row>
     <row r="133" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E133" s="7"/>
+      <c r="E133" s="15"/>
     </row>
     <row r="134" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E134" s="7"/>
+      <c r="E134" s="15"/>
     </row>
     <row r="135" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E135" s="7"/>
+      <c r="E135" s="15"/>
     </row>
     <row r="136" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E136" s="7"/>
+      <c r="E136" s="15"/>
     </row>
     <row r="137" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E137" s="7"/>
+      <c r="E137" s="15"/>
     </row>
     <row r="138" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E138" s="7"/>
+      <c r="E138" s="15"/>
     </row>
     <row r="139" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E139" s="7"/>
+      <c r="E139" s="15"/>
     </row>
     <row r="140" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E140" s="7"/>
+      <c r="E140" s="15"/>
     </row>
     <row r="141" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E141" s="7"/>
+      <c r="E141" s="15"/>
     </row>
     <row r="142" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E142" s="7"/>
+      <c r="E142" s="15"/>
     </row>
     <row r="143" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E143" s="7"/>
+      <c r="E143" s="15"/>
     </row>
     <row r="144" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E144" s="7"/>
+      <c r="E144" s="15"/>
     </row>
     <row r="145" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E145" s="7"/>
+      <c r="E145" s="15"/>
     </row>
     <row r="146" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E146" s="7"/>
+      <c r="E146" s="15"/>
     </row>
     <row r="147" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E147" s="7"/>
+      <c r="E147" s="15"/>
     </row>
     <row r="148" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E148" s="7"/>
+      <c r="E148" s="15"/>
     </row>
     <row r="149" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E149" s="7"/>
+      <c r="E149" s="15"/>
     </row>
     <row r="150" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E150" s="7"/>
+      <c r="E150" s="15"/>
     </row>
     <row r="151" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E151" s="7"/>
+      <c r="E151" s="15"/>
     </row>
     <row r="152" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E152" s="7"/>
+      <c r="E152" s="15"/>
     </row>
     <row r="153" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E153" s="7"/>
+      <c r="E153" s="15"/>
     </row>
     <row r="154" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E154" s="7"/>
+      <c r="E154" s="15"/>
     </row>
     <row r="155" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E155" s="7"/>
+      <c r="E155" s="15"/>
     </row>
     <row r="156" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E156" s="7"/>
+      <c r="E156" s="15"/>
     </row>
     <row r="157" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E157" s="7"/>
+      <c r="E157" s="15"/>
     </row>
     <row r="158" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E158" s="7"/>
+      <c r="E158" s="15"/>
     </row>
     <row r="159" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E159" s="7"/>
+      <c r="E159" s="15"/>
     </row>
     <row r="160" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E160" s="7"/>
+      <c r="E160" s="15"/>
     </row>
     <row r="161" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E161" s="7"/>
+      <c r="E161" s="15"/>
     </row>
     <row r="162" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E162" s="7"/>
+      <c r="E162" s="15"/>
     </row>
     <row r="163" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E163" s="7"/>
+      <c r="E163" s="15"/>
     </row>
     <row r="164" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E164" s="7"/>
+      <c r="E164" s="15"/>
     </row>
     <row r="165" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E165" s="7"/>
+      <c r="E165" s="15"/>
     </row>
     <row r="166" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E166" s="7"/>
+      <c r="E166" s="15"/>
     </row>
     <row r="167" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E167" s="7"/>
+      <c r="E167" s="15"/>
     </row>
     <row r="168" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E168" s="7"/>
+      <c r="E168" s="15"/>
     </row>
     <row r="169" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E169" s="7"/>
+      <c r="E169" s="15"/>
     </row>
     <row r="170" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E170" s="7"/>
+      <c r="E170" s="15"/>
     </row>
     <row r="171" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E171" s="7"/>
+      <c r="E171" s="15"/>
     </row>
     <row r="172" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E172" s="7"/>
+      <c r="E172" s="15"/>
     </row>
     <row r="173" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E173" s="7"/>
+      <c r="E173" s="15"/>
     </row>
     <row r="174" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E174" s="7"/>
+      <c r="E174" s="15"/>
     </row>
     <row r="175" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E175" s="7"/>
+      <c r="E175" s="15"/>
     </row>
     <row r="176" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E176" s="7"/>
+      <c r="E176" s="15"/>
     </row>
     <row r="177" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E177" s="7"/>
+      <c r="E177" s="15"/>
     </row>
     <row r="178" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E178" s="7"/>
+      <c r="E178" s="15"/>
     </row>
     <row r="179" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E179" s="7"/>
+      <c r="E179" s="15"/>
     </row>
     <row r="180" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E180" s="7"/>
+      <c r="E180" s="15"/>
     </row>
     <row r="181" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E181" s="7"/>
+      <c r="E181" s="15"/>
     </row>
     <row r="182" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E182" s="7"/>
+      <c r="E182" s="15"/>
     </row>
     <row r="183" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E183" s="7"/>
+      <c r="E183" s="15"/>
     </row>
     <row r="184" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E184" s="7"/>
+      <c r="E184" s="15"/>
     </row>
     <row r="185" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E185" s="7"/>
+      <c r="E185" s="15"/>
     </row>
     <row r="186" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E186" s="7"/>
+      <c r="E186" s="15"/>
     </row>
     <row r="187" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E187" s="7"/>
+      <c r="E187" s="15"/>
     </row>
     <row r="188" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E188" s="7"/>
+      <c r="E188" s="15"/>
     </row>
     <row r="189" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E189" s="7"/>
+      <c r="E189" s="15"/>
     </row>
     <row r="190" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E190" s="7"/>
+      <c r="E190" s="15"/>
     </row>
     <row r="191" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E191" s="7"/>
+      <c r="E191" s="15"/>
     </row>
     <row r="192" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E192" s="7"/>
+      <c r="E192" s="15"/>
     </row>
     <row r="193" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E193" s="7"/>
+      <c r="E193" s="15"/>
     </row>
     <row r="194" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E194" s="7"/>
+      <c r="E194" s="15"/>
     </row>
     <row r="195" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E195" s="7"/>
+      <c r="E195" s="15"/>
     </row>
     <row r="196" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E196" s="7"/>
+      <c r="E196" s="15"/>
     </row>
     <row r="197" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E197" s="7"/>
+      <c r="E197" s="15"/>
     </row>
     <row r="198" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E198" s="7"/>
+      <c r="E198" s="15"/>
     </row>
     <row r="199" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E199" s="7"/>
+      <c r="E199" s="15"/>
     </row>
     <row r="200" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E200" s="7"/>
+      <c r="E200" s="15"/>
     </row>
     <row r="201" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E201" s="7"/>
+      <c r="E201" s="15"/>
     </row>
     <row r="202" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E202" s="7"/>
+      <c r="E202" s="15"/>
     </row>
     <row r="203" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E203" s="7"/>
+      <c r="E203" s="15"/>
     </row>
     <row r="204" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E204" s="7"/>
+      <c r="E204" s="15"/>
     </row>
     <row r="205" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E205" s="7"/>
+      <c r="E205" s="15"/>
     </row>
     <row r="206" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E206" s="7"/>
+      <c r="E206" s="15"/>
     </row>
     <row r="207" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E207" s="7"/>
+      <c r="E207" s="15"/>
     </row>
     <row r="208" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E208" s="7"/>
+      <c r="E208" s="15"/>
     </row>
     <row r="209" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E209" s="7"/>
+      <c r="E209" s="15"/>
     </row>
     <row r="210" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E210" s="7"/>
+      <c r="E210" s="15"/>
     </row>
     <row r="211" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E211" s="7"/>
+      <c r="E211" s="15"/>
     </row>
     <row r="212" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E212" s="7"/>
+      <c r="E212" s="15"/>
     </row>
     <row r="213" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E213" s="7"/>
+      <c r="E213" s="15"/>
     </row>
     <row r="214" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E214" s="7"/>
+      <c r="E214" s="15"/>
     </row>
     <row r="215" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E215" s="7"/>
+      <c r="E215" s="15"/>
     </row>
     <row r="216" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E216" s="7"/>
+      <c r="E216" s="15"/>
     </row>
     <row r="217" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E217" s="7"/>
+      <c r="E217" s="15"/>
     </row>
     <row r="218" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E218" s="7"/>
+      <c r="E218" s="15"/>
     </row>
     <row r="219" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E219" s="7"/>
+      <c r="E219" s="15"/>
     </row>
     <row r="220" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E220" s="7"/>
+      <c r="E220" s="15"/>
     </row>
     <row r="221" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E221" s="7"/>
+      <c r="E221" s="15"/>
     </row>
     <row r="222" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E222" s="7"/>
+      <c r="E222" s="15"/>
     </row>
     <row r="223" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E223" s="7"/>
+      <c r="E223" s="15"/>
     </row>
     <row r="224" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E224" s="7"/>
+      <c r="E224" s="15"/>
     </row>
     <row r="225" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E225" s="7"/>
+      <c r="E225" s="15"/>
     </row>
     <row r="226" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E226" s="7"/>
+      <c r="E226" s="15"/>
     </row>
     <row r="227" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E227" s="7"/>
+      <c r="E227" s="15"/>
     </row>
     <row r="228" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E228" s="7"/>
+      <c r="E228" s="15"/>
     </row>
     <row r="229" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E229" s="7"/>
+      <c r="E229" s="15"/>
     </row>
     <row r="230" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E230" s="7"/>
+      <c r="E230" s="15"/>
     </row>
     <row r="231" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E231" s="7"/>
+      <c r="E231" s="15"/>
     </row>
     <row r="232" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E232" s="7"/>
+      <c r="E232" s="15"/>
     </row>
     <row r="233" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E233" s="7"/>
+      <c r="E233" s="15"/>
     </row>
     <row r="234" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E234" s="7"/>
+      <c r="E234" s="15"/>
     </row>
     <row r="235" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E235" s="7"/>
+      <c r="E235" s="15"/>
     </row>
     <row r="236" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E236" s="7"/>
+      <c r="E236" s="15"/>
     </row>
     <row r="237" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E237" s="7"/>
+      <c r="E237" s="15"/>
     </row>
     <row r="238" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E238" s="7"/>
+      <c r="E238" s="15"/>
     </row>
     <row r="239" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E239" s="7"/>
+      <c r="E239" s="15"/>
     </row>
     <row r="240" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E240" s="7"/>
+      <c r="E240" s="15"/>
     </row>
     <row r="241" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E241" s="7"/>
+      <c r="E241" s="15"/>
     </row>
     <row r="242" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E242" s="7"/>
+      <c r="E242" s="15"/>
     </row>
     <row r="243" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E243" s="7"/>
+      <c r="E243" s="15"/>
     </row>
     <row r="244" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E244" s="7"/>
+      <c r="E244" s="15"/>
     </row>
     <row r="245" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E245" s="7"/>
+      <c r="E245" s="15"/>
     </row>
     <row r="246" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E246" s="7"/>
+      <c r="E246" s="15"/>
     </row>
     <row r="247" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E247" s="7"/>
+      <c r="E247" s="15"/>
     </row>
     <row r="248" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E248" s="7"/>
+      <c r="E248" s="15"/>
     </row>
     <row r="249" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E249" s="7"/>
+      <c r="E249" s="15"/>
     </row>
     <row r="250" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E250" s="7"/>
+      <c r="E250" s="15"/>
     </row>
     <row r="251" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E251" s="7"/>
+      <c r="E251" s="15"/>
     </row>
     <row r="252" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E252" s="7"/>
+      <c r="E252" s="15"/>
     </row>
     <row r="253" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E253" s="7"/>
+      <c r="E253" s="15"/>
     </row>
     <row r="254" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E254" s="7"/>
+      <c r="E254" s="15"/>
     </row>
     <row r="255" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E255" s="7"/>
+      <c r="E255" s="15"/>
     </row>
     <row r="256" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E256" s="7"/>
+      <c r="E256" s="15"/>
     </row>
     <row r="257" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E257" s="7"/>
+      <c r="E257" s="15"/>
     </row>
     <row r="258" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E258" s="7"/>
+      <c r="E258" s="15"/>
     </row>
     <row r="259" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E259" s="7"/>
+      <c r="E259" s="15"/>
     </row>
     <row r="260" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="261" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2813,18 +2800,21 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D18:E18"/>
+  <mergeCells count="12">
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="A37:E37"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/botCode/workWithExcelFile/excelDatabase/9class/М-9-2, Ф-9-2, Р-9-3-1.xlsx
+++ b/botCode/workWithExcelFile/excelDatabase/9class/М-9-2, Ф-9-2, Р-9-3-1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12915"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="М-9-2, Ф-9-2, Р-9-3-1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="46">
   <si>
     <t>Вторник</t>
   </si>
@@ -68,31 +68,70 @@
     <t>Classroom+Zoom</t>
   </si>
   <si>
+    <t>Информатика</t>
+  </si>
+  <si>
+    <t>география</t>
+  </si>
+  <si>
+    <t>Р-9-3</t>
+  </si>
+  <si>
+    <t>Аксенова</t>
+  </si>
+  <si>
+    <t>Русский</t>
+  </si>
+  <si>
+    <t>Симонян</t>
+  </si>
+  <si>
+    <t>Среда</t>
+  </si>
+  <si>
+    <t>Спецмат</t>
+  </si>
+  <si>
+    <t>Английский</t>
+  </si>
+  <si>
     <t>Физика</t>
   </si>
   <si>
-    <t>Информатика</t>
-  </si>
-  <si>
-    <t>география</t>
-  </si>
-  <si>
-    <t>Р-9-3</t>
-  </si>
-  <si>
-    <t>Аксенова</t>
-  </si>
-  <si>
-    <t>Русский</t>
-  </si>
-  <si>
-    <t>Симонян</t>
-  </si>
-  <si>
-    <t>Среда</t>
-  </si>
-  <si>
-    <t>Спецмат</t>
+    <t>Четверг</t>
+  </si>
+  <si>
+    <t>информатика</t>
+  </si>
+  <si>
+    <t>Киселева</t>
+  </si>
+  <si>
+    <t>обществознание</t>
+  </si>
+  <si>
+    <t>Жигулин</t>
+  </si>
+  <si>
+    <t>алгебра</t>
+  </si>
+  <si>
+    <t>Панькина</t>
+  </si>
+  <si>
+    <t>Биология</t>
+  </si>
+  <si>
+    <t>Смолянова</t>
+  </si>
+  <si>
+    <t>Пятница</t>
+  </si>
+  <si>
+    <t>Геометрия</t>
+  </si>
+  <si>
+    <t>Р-9-2,3</t>
   </si>
   <si>
     <t>литература</t>
@@ -101,49 +140,10 @@
     <t>Перхулова</t>
   </si>
   <si>
-    <t>Английский</t>
-  </si>
-  <si>
-    <t>Четверг</t>
-  </si>
-  <si>
-    <t>информатика</t>
-  </si>
-  <si>
-    <t>Киселева</t>
-  </si>
-  <si>
-    <t>обществознание</t>
-  </si>
-  <si>
-    <t>Жигулин</t>
-  </si>
-  <si>
-    <t>алгебра</t>
-  </si>
-  <si>
-    <t>Панькина</t>
-  </si>
-  <si>
-    <t>Биология</t>
-  </si>
-  <si>
-    <t>Смолянова</t>
-  </si>
-  <si>
-    <t>Пятница</t>
-  </si>
-  <si>
-    <t>Геометрия</t>
-  </si>
-  <si>
-    <t>Р-9-2,3</t>
+    <t>Р-9-3-1</t>
   </si>
   <si>
     <t>Английский язык</t>
-  </si>
-  <si>
-    <t>Р-9-3-1</t>
   </si>
   <si>
     <t>Суббота</t>
@@ -214,7 +214,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,6 +231,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFCE4D6"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -333,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -377,6 +383,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -663,7 +675,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:E33"/>
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -784,7 +796,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -792,13 +804,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>8</v>
@@ -809,13 +821,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>8</v>
@@ -845,7 +857,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -878,24 +890,23 @@
         <v>13</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>2</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>8</v>
+      <c r="B16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -903,13 +914,13 @@
         <v>3</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>8</v>
@@ -920,10 +931,10 @@
         <v>4</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="8" t="s">
@@ -977,17 +988,24 @@
         <v>13</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>8</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="B22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
@@ -1004,7 +1022,7 @@
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1038,13 +1056,13 @@
         <v>2</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>8</v>
@@ -1072,13 +1090,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>8</v>
@@ -1089,13 +1107,13 @@
         <v>5</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E31" s="18" t="s">
         <v>8</v>
@@ -1106,13 +1124,13 @@
         <v>6</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E32" s="18" t="s">
         <v>8</v>
@@ -1123,13 +1141,13 @@
         <v>7</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E33" s="18" t="s">
         <v>8</v>
@@ -1159,7 +1177,7 @@
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1209,7 +1227,7 @@
         <v>13</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1217,10 +1235,10 @@
         <v>3</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="8" t="s">
@@ -1231,16 +1249,17 @@
       <c r="A42" s="4">
         <v>4</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>38</v>
+      <c r="B42" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1248,13 +1267,13 @@
         <v>5</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>8</v>
@@ -1265,13 +1284,13 @@
         <v>6</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>8</v>
@@ -1281,10 +1300,17 @@
       <c r="A45" s="4">
         <v>7</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="8"/>
+      <c r="B45" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
@@ -1335,13 +1361,13 @@
         <v>1</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>8</v>
@@ -1352,13 +1378,13 @@
         <v>2</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>8</v>
@@ -1394,7 +1420,7 @@
         <v>13</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1425,7 +1451,7 @@
         <v>6</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>8</v>
@@ -2800,19 +2826,21 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="A37:E37"/>
     <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B45:D45"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/botCode/workWithExcelFile/excelDatabase/9class/М-9-2, Ф-9-2, Р-9-3-1.xlsx
+++ b/botCode/workWithExcelFile/excelDatabase/9class/М-9-2, Ф-9-2, Р-9-3-1.xlsx
@@ -68,45 +68,48 @@
     <t>Classroom+Zoom</t>
   </si>
   <si>
+    <t>Спецмат</t>
+  </si>
+  <si>
+    <t>география</t>
+  </si>
+  <si>
+    <t>Р-9-3</t>
+  </si>
+  <si>
+    <t>Аксенова</t>
+  </si>
+  <si>
+    <t>Русский</t>
+  </si>
+  <si>
+    <t>Симонян</t>
+  </si>
+  <si>
+    <t>Среда</t>
+  </si>
+  <si>
+    <t>информатика</t>
+  </si>
+  <si>
+    <t>Р-9-3-1</t>
+  </si>
+  <si>
+    <t>Киселева</t>
+  </si>
+  <si>
+    <t>Английский</t>
+  </si>
+  <si>
+    <t>Физика</t>
+  </si>
+  <si>
+    <t>Четверг</t>
+  </si>
+  <si>
     <t>Информатика</t>
   </si>
   <si>
-    <t>география</t>
-  </si>
-  <si>
-    <t>Р-9-3</t>
-  </si>
-  <si>
-    <t>Аксенова</t>
-  </si>
-  <si>
-    <t>Русский</t>
-  </si>
-  <si>
-    <t>Симонян</t>
-  </si>
-  <si>
-    <t>Среда</t>
-  </si>
-  <si>
-    <t>Спецмат</t>
-  </si>
-  <si>
-    <t>Английский</t>
-  </si>
-  <si>
-    <t>Физика</t>
-  </si>
-  <si>
-    <t>Четверг</t>
-  </si>
-  <si>
-    <t>информатика</t>
-  </si>
-  <si>
-    <t>Киселева</t>
-  </si>
-  <si>
     <t>обществознание</t>
   </si>
   <si>
@@ -138,9 +141,6 @@
   </si>
   <si>
     <t>Перхулова</t>
-  </si>
-  <si>
-    <t>Р-9-3-1</t>
   </si>
   <si>
     <t>Английский язык</t>
@@ -178,32 +178,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -211,7 +206,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -224,23 +218,23 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF4B084"/>
-        <bgColor rgb="FF000000"/>
+        <bgColor rgb="FFF4B084"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFCE4D6"/>
-        <bgColor rgb="FF000000"/>
+        <bgColor rgb="FFFCE4D6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFB6D7A8"/>
+        <bgColor rgb="FFB6D7A8"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -288,21 +282,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -339,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -349,11 +328,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -362,33 +338,25 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -675,19 +643,19 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19" style="3" customWidth="1"/>
-    <col min="6" max="6" width="31.875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.875" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="12.625" style="3"/>
+    <col min="1" max="1" width="9.875" style="3" customWidth="1"/>
+    <col min="2" max="3" width="17.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="27.875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="34.25" style="3" customWidth="1"/>
+    <col min="8" max="26" width="11.125" style="3" customWidth="1"/>
+    <col min="27" max="16384" width="12.625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -720,16 +688,16 @@
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -737,16 +705,16 @@
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -763,7 +731,7 @@
       <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -771,15 +739,15 @@
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -787,15 +755,15 @@
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -812,7 +780,7 @@
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -829,7 +797,7 @@
       <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -852,17 +820,17 @@
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="E12" s="15"/>
+      <c r="A12" s="12"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
@@ -881,32 +849,34 @@
       <c r="A15" s="4">
         <v>1</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="13" t="s">
+      <c r="B15" s="15" t="s">
         <v>21</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>2</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="13" t="s">
+      <c r="B16" s="15" t="s">
         <v>21</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -922,7 +892,7 @@
       <c r="D17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -931,13 +901,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -954,7 +924,7 @@
       <c r="D19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -971,7 +941,7 @@
       <c r="D20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -979,32 +949,32 @@
       <c r="A21" s="4">
         <v>7</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12" t="s">
+      <c r="C21" s="2"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>23</v>
+      <c r="F21" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>8</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12" t="s">
+      <c r="C22" s="2"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="13" t="s">
-        <v>23</v>
+      <c r="F22" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1017,12 +987,12 @@
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="E24" s="15"/>
+      <c r="A24" s="12"/>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1046,26 +1016,32 @@
       <c r="A27" s="4">
         <v>1</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="8"/>
+      <c r="B27" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>2</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>8</v>
+      <c r="B28" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1081,7 +1057,7 @@
       <c r="D29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1090,15 +1066,15 @@
         <v>4</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1106,16 +1082,16 @@
       <c r="A31" s="4">
         <v>5</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="7" t="s">
+      <c r="B31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="18" t="s">
+      <c r="D31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1123,16 +1099,16 @@
       <c r="A32" s="4">
         <v>6</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="7" t="s">
+      <c r="B32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="18" t="s">
+      <c r="D32" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1140,16 +1116,16 @@
       <c r="A33" s="4">
         <v>7</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="7" t="s">
+      <c r="B33" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" s="18" t="s">
+      <c r="D33" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1172,12 +1148,12 @@
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="E36" s="15"/>
+      <c r="A36" s="12"/>
+      <c r="E36" s="6"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1201,16 +1177,16 @@
       <c r="A39" s="4">
         <v>1</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1218,16 +1194,16 @@
       <c r="A40" s="4">
         <v>2</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="12" t="s">
+      <c r="C40" s="2"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="13" t="s">
-        <v>34</v>
+      <c r="F40" s="11" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1235,13 +1211,13 @@
         <v>3</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D41" s="4"/>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1249,16 +1225,16 @@
       <c r="A42" s="4">
         <v>4</v>
       </c>
-      <c r="B42" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C42" s="19" t="s">
+      <c r="B42" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E42" s="20" t="s">
+      <c r="D42" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1266,17 +1242,16 @@
       <c r="A43" s="4">
         <v>5</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>8</v>
+      <c r="B43" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1292,7 +1267,7 @@
       <c r="D44" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1300,17 +1275,10 @@
       <c r="A45" s="4">
         <v>7</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>39</v>
-      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
@@ -1331,8 +1299,8 @@
       <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="E48" s="15"/>
+      <c r="A48" s="12"/>
+      <c r="E48" s="6"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
@@ -1361,15 +1329,15 @@
         <v>1</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E51" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1378,15 +1346,15 @@
         <v>2</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E52" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1403,7 +1371,7 @@
       <c r="D53" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1411,16 +1379,16 @@
       <c r="A54" s="4">
         <v>4</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="12" t="s">
+      <c r="C54" s="2"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F54" s="13" t="s">
-        <v>14</v>
+      <c r="F54" s="11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1436,7 +1404,7 @@
       <c r="D55" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1444,16 +1412,16 @@
       <c r="A56" s="4">
         <v>6</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D56" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E56" s="8" t="s">
+      <c r="D56" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1485,604 +1453,604 @@
       <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E60" s="15"/>
+      <c r="E60" s="6"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E61" s="15"/>
+      <c r="E61" s="6"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E62" s="15"/>
+      <c r="E62" s="6"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E63" s="15"/>
+      <c r="E63" s="6"/>
     </row>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E64" s="15"/>
+      <c r="E64" s="6"/>
     </row>
     <row r="65" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E65" s="15"/>
+      <c r="E65" s="6"/>
     </row>
     <row r="66" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E66" s="15"/>
+      <c r="E66" s="6"/>
     </row>
     <row r="67" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E67" s="15"/>
+      <c r="E67" s="6"/>
     </row>
     <row r="68" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E68" s="15"/>
+      <c r="E68" s="6"/>
     </row>
     <row r="69" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E69" s="15"/>
+      <c r="E69" s="6"/>
     </row>
     <row r="70" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E70" s="15"/>
+      <c r="E70" s="6"/>
     </row>
     <row r="71" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E71" s="15"/>
+      <c r="E71" s="6"/>
     </row>
     <row r="72" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E72" s="15"/>
+      <c r="E72" s="6"/>
     </row>
     <row r="73" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E73" s="15"/>
+      <c r="E73" s="6"/>
     </row>
     <row r="74" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E74" s="15"/>
+      <c r="E74" s="6"/>
     </row>
     <row r="75" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E75" s="15"/>
+      <c r="E75" s="6"/>
     </row>
     <row r="76" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E76" s="15"/>
+      <c r="E76" s="6"/>
     </row>
     <row r="77" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E77" s="15"/>
+      <c r="E77" s="6"/>
     </row>
     <row r="78" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E78" s="15"/>
+      <c r="E78" s="6"/>
     </row>
     <row r="79" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E79" s="15"/>
+      <c r="E79" s="6"/>
     </row>
     <row r="80" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E80" s="15"/>
+      <c r="E80" s="6"/>
     </row>
     <row r="81" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E81" s="15"/>
+      <c r="E81" s="6"/>
     </row>
     <row r="82" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E82" s="15"/>
+      <c r="E82" s="6"/>
     </row>
     <row r="83" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E83" s="15"/>
+      <c r="E83" s="6"/>
     </row>
     <row r="84" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E84" s="15"/>
+      <c r="E84" s="6"/>
     </row>
     <row r="85" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E85" s="15"/>
+      <c r="E85" s="6"/>
     </row>
     <row r="86" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E86" s="15"/>
+      <c r="E86" s="6"/>
     </row>
     <row r="87" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E87" s="15"/>
+      <c r="E87" s="6"/>
     </row>
     <row r="88" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E88" s="15"/>
+      <c r="E88" s="6"/>
     </row>
     <row r="89" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E89" s="15"/>
+      <c r="E89" s="6"/>
     </row>
     <row r="90" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E90" s="15"/>
+      <c r="E90" s="6"/>
     </row>
     <row r="91" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E91" s="15"/>
+      <c r="E91" s="6"/>
     </row>
     <row r="92" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E92" s="15"/>
+      <c r="E92" s="6"/>
     </row>
     <row r="93" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E93" s="15"/>
+      <c r="E93" s="6"/>
     </row>
     <row r="94" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E94" s="15"/>
+      <c r="E94" s="6"/>
     </row>
     <row r="95" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E95" s="15"/>
+      <c r="E95" s="6"/>
     </row>
     <row r="96" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E96" s="15"/>
+      <c r="E96" s="6"/>
     </row>
     <row r="97" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E97" s="15"/>
+      <c r="E97" s="6"/>
     </row>
     <row r="98" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E98" s="15"/>
+      <c r="E98" s="6"/>
     </row>
     <row r="99" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E99" s="15"/>
+      <c r="E99" s="6"/>
     </row>
     <row r="100" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E100" s="15"/>
+      <c r="E100" s="6"/>
     </row>
     <row r="101" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E101" s="15"/>
+      <c r="E101" s="6"/>
     </row>
     <row r="102" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E102" s="15"/>
+      <c r="E102" s="6"/>
     </row>
     <row r="103" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E103" s="15"/>
+      <c r="E103" s="6"/>
     </row>
     <row r="104" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E104" s="15"/>
+      <c r="E104" s="6"/>
     </row>
     <row r="105" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E105" s="15"/>
+      <c r="E105" s="6"/>
     </row>
     <row r="106" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E106" s="15"/>
+      <c r="E106" s="6"/>
     </row>
     <row r="107" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E107" s="15"/>
+      <c r="E107" s="6"/>
     </row>
     <row r="108" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E108" s="15"/>
+      <c r="E108" s="6"/>
     </row>
     <row r="109" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E109" s="15"/>
+      <c r="E109" s="6"/>
     </row>
     <row r="110" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E110" s="15"/>
+      <c r="E110" s="6"/>
     </row>
     <row r="111" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E111" s="15"/>
+      <c r="E111" s="6"/>
     </row>
     <row r="112" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E112" s="15"/>
+      <c r="E112" s="6"/>
     </row>
     <row r="113" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E113" s="15"/>
+      <c r="E113" s="6"/>
     </row>
     <row r="114" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E114" s="15"/>
+      <c r="E114" s="6"/>
     </row>
     <row r="115" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E115" s="15"/>
+      <c r="E115" s="6"/>
     </row>
     <row r="116" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E116" s="15"/>
+      <c r="E116" s="6"/>
     </row>
     <row r="117" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E117" s="15"/>
+      <c r="E117" s="6"/>
     </row>
     <row r="118" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E118" s="15"/>
+      <c r="E118" s="6"/>
     </row>
     <row r="119" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E119" s="15"/>
+      <c r="E119" s="6"/>
     </row>
     <row r="120" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E120" s="15"/>
+      <c r="E120" s="6"/>
     </row>
     <row r="121" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E121" s="15"/>
+      <c r="E121" s="6"/>
     </row>
     <row r="122" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E122" s="15"/>
+      <c r="E122" s="6"/>
     </row>
     <row r="123" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E123" s="15"/>
+      <c r="E123" s="6"/>
     </row>
     <row r="124" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E124" s="15"/>
+      <c r="E124" s="6"/>
     </row>
     <row r="125" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E125" s="15"/>
+      <c r="E125" s="6"/>
     </row>
     <row r="126" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E126" s="15"/>
+      <c r="E126" s="6"/>
     </row>
     <row r="127" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E127" s="15"/>
+      <c r="E127" s="6"/>
     </row>
     <row r="128" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E128" s="15"/>
+      <c r="E128" s="6"/>
     </row>
     <row r="129" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E129" s="15"/>
+      <c r="E129" s="6"/>
     </row>
     <row r="130" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E130" s="15"/>
+      <c r="E130" s="6"/>
     </row>
     <row r="131" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E131" s="15"/>
+      <c r="E131" s="6"/>
     </row>
     <row r="132" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E132" s="15"/>
+      <c r="E132" s="6"/>
     </row>
     <row r="133" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E133" s="15"/>
+      <c r="E133" s="6"/>
     </row>
     <row r="134" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E134" s="15"/>
+      <c r="E134" s="6"/>
     </row>
     <row r="135" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E135" s="15"/>
+      <c r="E135" s="6"/>
     </row>
     <row r="136" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E136" s="15"/>
+      <c r="E136" s="6"/>
     </row>
     <row r="137" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E137" s="15"/>
+      <c r="E137" s="6"/>
     </row>
     <row r="138" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E138" s="15"/>
+      <c r="E138" s="6"/>
     </row>
     <row r="139" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E139" s="15"/>
+      <c r="E139" s="6"/>
     </row>
     <row r="140" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E140" s="15"/>
+      <c r="E140" s="6"/>
     </row>
     <row r="141" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E141" s="15"/>
+      <c r="E141" s="6"/>
     </row>
     <row r="142" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E142" s="15"/>
+      <c r="E142" s="6"/>
     </row>
     <row r="143" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E143" s="15"/>
+      <c r="E143" s="6"/>
     </row>
     <row r="144" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E144" s="15"/>
+      <c r="E144" s="6"/>
     </row>
     <row r="145" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E145" s="15"/>
+      <c r="E145" s="6"/>
     </row>
     <row r="146" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E146" s="15"/>
+      <c r="E146" s="6"/>
     </row>
     <row r="147" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E147" s="15"/>
+      <c r="E147" s="6"/>
     </row>
     <row r="148" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E148" s="15"/>
+      <c r="E148" s="6"/>
     </row>
     <row r="149" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E149" s="15"/>
+      <c r="E149" s="6"/>
     </row>
     <row r="150" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E150" s="15"/>
+      <c r="E150" s="6"/>
     </row>
     <row r="151" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E151" s="15"/>
+      <c r="E151" s="6"/>
     </row>
     <row r="152" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E152" s="15"/>
+      <c r="E152" s="6"/>
     </row>
     <row r="153" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E153" s="15"/>
+      <c r="E153" s="6"/>
     </row>
     <row r="154" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E154" s="15"/>
+      <c r="E154" s="6"/>
     </row>
     <row r="155" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E155" s="15"/>
+      <c r="E155" s="6"/>
     </row>
     <row r="156" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E156" s="15"/>
+      <c r="E156" s="6"/>
     </row>
     <row r="157" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E157" s="15"/>
+      <c r="E157" s="6"/>
     </row>
     <row r="158" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E158" s="15"/>
+      <c r="E158" s="6"/>
     </row>
     <row r="159" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E159" s="15"/>
+      <c r="E159" s="6"/>
     </row>
     <row r="160" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E160" s="15"/>
+      <c r="E160" s="6"/>
     </row>
     <row r="161" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E161" s="15"/>
+      <c r="E161" s="6"/>
     </row>
     <row r="162" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E162" s="15"/>
+      <c r="E162" s="6"/>
     </row>
     <row r="163" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E163" s="15"/>
+      <c r="E163" s="6"/>
     </row>
     <row r="164" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E164" s="15"/>
+      <c r="E164" s="6"/>
     </row>
     <row r="165" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E165" s="15"/>
+      <c r="E165" s="6"/>
     </row>
     <row r="166" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E166" s="15"/>
+      <c r="E166" s="6"/>
     </row>
     <row r="167" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E167" s="15"/>
+      <c r="E167" s="6"/>
     </row>
     <row r="168" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E168" s="15"/>
+      <c r="E168" s="6"/>
     </row>
     <row r="169" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E169" s="15"/>
+      <c r="E169" s="6"/>
     </row>
     <row r="170" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E170" s="15"/>
+      <c r="E170" s="6"/>
     </row>
     <row r="171" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E171" s="15"/>
+      <c r="E171" s="6"/>
     </row>
     <row r="172" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E172" s="15"/>
+      <c r="E172" s="6"/>
     </row>
     <row r="173" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E173" s="15"/>
+      <c r="E173" s="6"/>
     </row>
     <row r="174" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E174" s="15"/>
+      <c r="E174" s="6"/>
     </row>
     <row r="175" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E175" s="15"/>
+      <c r="E175" s="6"/>
     </row>
     <row r="176" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E176" s="15"/>
+      <c r="E176" s="6"/>
     </row>
     <row r="177" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E177" s="15"/>
+      <c r="E177" s="6"/>
     </row>
     <row r="178" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E178" s="15"/>
+      <c r="E178" s="6"/>
     </row>
     <row r="179" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E179" s="15"/>
+      <c r="E179" s="6"/>
     </row>
     <row r="180" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E180" s="15"/>
+      <c r="E180" s="6"/>
     </row>
     <row r="181" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E181" s="15"/>
+      <c r="E181" s="6"/>
     </row>
     <row r="182" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E182" s="15"/>
+      <c r="E182" s="6"/>
     </row>
     <row r="183" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E183" s="15"/>
+      <c r="E183" s="6"/>
     </row>
     <row r="184" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E184" s="15"/>
+      <c r="E184" s="6"/>
     </row>
     <row r="185" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E185" s="15"/>
+      <c r="E185" s="6"/>
     </row>
     <row r="186" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E186" s="15"/>
+      <c r="E186" s="6"/>
     </row>
     <row r="187" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E187" s="15"/>
+      <c r="E187" s="6"/>
     </row>
     <row r="188" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E188" s="15"/>
+      <c r="E188" s="6"/>
     </row>
     <row r="189" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E189" s="15"/>
+      <c r="E189" s="6"/>
     </row>
     <row r="190" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E190" s="15"/>
+      <c r="E190" s="6"/>
     </row>
     <row r="191" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E191" s="15"/>
+      <c r="E191" s="6"/>
     </row>
     <row r="192" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E192" s="15"/>
+      <c r="E192" s="6"/>
     </row>
     <row r="193" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E193" s="15"/>
+      <c r="E193" s="6"/>
     </row>
     <row r="194" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E194" s="15"/>
+      <c r="E194" s="6"/>
     </row>
     <row r="195" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E195" s="15"/>
+      <c r="E195" s="6"/>
     </row>
     <row r="196" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E196" s="15"/>
+      <c r="E196" s="6"/>
     </row>
     <row r="197" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E197" s="15"/>
+      <c r="E197" s="6"/>
     </row>
     <row r="198" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E198" s="15"/>
+      <c r="E198" s="6"/>
     </row>
     <row r="199" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E199" s="15"/>
+      <c r="E199" s="6"/>
     </row>
     <row r="200" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E200" s="15"/>
+      <c r="E200" s="6"/>
     </row>
     <row r="201" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E201" s="15"/>
+      <c r="E201" s="6"/>
     </row>
     <row r="202" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E202" s="15"/>
+      <c r="E202" s="6"/>
     </row>
     <row r="203" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E203" s="15"/>
+      <c r="E203" s="6"/>
     </row>
     <row r="204" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E204" s="15"/>
+      <c r="E204" s="6"/>
     </row>
     <row r="205" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E205" s="15"/>
+      <c r="E205" s="6"/>
     </row>
     <row r="206" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E206" s="15"/>
+      <c r="E206" s="6"/>
     </row>
     <row r="207" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E207" s="15"/>
+      <c r="E207" s="6"/>
     </row>
     <row r="208" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E208" s="15"/>
+      <c r="E208" s="6"/>
     </row>
     <row r="209" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E209" s="15"/>
+      <c r="E209" s="6"/>
     </row>
     <row r="210" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E210" s="15"/>
+      <c r="E210" s="6"/>
     </row>
     <row r="211" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E211" s="15"/>
+      <c r="E211" s="6"/>
     </row>
     <row r="212" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E212" s="15"/>
+      <c r="E212" s="6"/>
     </row>
     <row r="213" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E213" s="15"/>
+      <c r="E213" s="6"/>
     </row>
     <row r="214" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E214" s="15"/>
+      <c r="E214" s="6"/>
     </row>
     <row r="215" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E215" s="15"/>
+      <c r="E215" s="6"/>
     </row>
     <row r="216" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E216" s="15"/>
+      <c r="E216" s="6"/>
     </row>
     <row r="217" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E217" s="15"/>
+      <c r="E217" s="6"/>
     </row>
     <row r="218" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E218" s="15"/>
+      <c r="E218" s="6"/>
     </row>
     <row r="219" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E219" s="15"/>
+      <c r="E219" s="6"/>
     </row>
     <row r="220" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E220" s="15"/>
+      <c r="E220" s="6"/>
     </row>
     <row r="221" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E221" s="15"/>
+      <c r="E221" s="6"/>
     </row>
     <row r="222" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E222" s="15"/>
+      <c r="E222" s="6"/>
     </row>
     <row r="223" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E223" s="15"/>
+      <c r="E223" s="6"/>
     </row>
     <row r="224" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E224" s="15"/>
+      <c r="E224" s="6"/>
     </row>
     <row r="225" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E225" s="15"/>
+      <c r="E225" s="6"/>
     </row>
     <row r="226" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E226" s="15"/>
+      <c r="E226" s="6"/>
     </row>
     <row r="227" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E227" s="15"/>
+      <c r="E227" s="6"/>
     </row>
     <row r="228" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E228" s="15"/>
+      <c r="E228" s="6"/>
     </row>
     <row r="229" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E229" s="15"/>
+      <c r="E229" s="6"/>
     </row>
     <row r="230" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E230" s="15"/>
+      <c r="E230" s="6"/>
     </row>
     <row r="231" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E231" s="15"/>
+      <c r="E231" s="6"/>
     </row>
     <row r="232" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E232" s="15"/>
+      <c r="E232" s="6"/>
     </row>
     <row r="233" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E233" s="15"/>
+      <c r="E233" s="6"/>
     </row>
     <row r="234" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E234" s="15"/>
+      <c r="E234" s="6"/>
     </row>
     <row r="235" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E235" s="15"/>
+      <c r="E235" s="6"/>
     </row>
     <row r="236" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E236" s="15"/>
+      <c r="E236" s="6"/>
     </row>
     <row r="237" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E237" s="15"/>
+      <c r="E237" s="6"/>
     </row>
     <row r="238" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E238" s="15"/>
+      <c r="E238" s="6"/>
     </row>
     <row r="239" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E239" s="15"/>
+      <c r="E239" s="6"/>
     </row>
     <row r="240" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E240" s="15"/>
+      <c r="E240" s="6"/>
     </row>
     <row r="241" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E241" s="15"/>
+      <c r="E241" s="6"/>
     </row>
     <row r="242" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E242" s="15"/>
+      <c r="E242" s="6"/>
     </row>
     <row r="243" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E243" s="15"/>
+      <c r="E243" s="6"/>
     </row>
     <row r="244" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E244" s="15"/>
+      <c r="E244" s="6"/>
     </row>
     <row r="245" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E245" s="15"/>
+      <c r="E245" s="6"/>
     </row>
     <row r="246" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E246" s="15"/>
+      <c r="E246" s="6"/>
     </row>
     <row r="247" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E247" s="15"/>
+      <c r="E247" s="6"/>
     </row>
     <row r="248" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E248" s="15"/>
+      <c r="E248" s="6"/>
     </row>
     <row r="249" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E249" s="15"/>
+      <c r="E249" s="6"/>
     </row>
     <row r="250" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E250" s="15"/>
+      <c r="E250" s="6"/>
     </row>
     <row r="251" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E251" s="15"/>
+      <c r="E251" s="6"/>
     </row>
     <row r="252" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E252" s="15"/>
+      <c r="E252" s="6"/>
     </row>
     <row r="253" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E253" s="15"/>
+      <c r="E253" s="6"/>
     </row>
     <row r="254" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E254" s="15"/>
+      <c r="E254" s="6"/>
     </row>
     <row r="255" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E255" s="15"/>
+      <c r="E255" s="6"/>
     </row>
     <row r="256" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E256" s="15"/>
+      <c r="E256" s="6"/>
     </row>
     <row r="257" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E257" s="15"/>
+      <c r="E257" s="6"/>
     </row>
     <row r="258" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E258" s="15"/>
+      <c r="E258" s="6"/>
     </row>
     <row r="259" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E259" s="15"/>
+      <c r="E259" s="6"/>
     </row>
     <row r="260" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="261" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2829,18 +2797,18 @@
   <mergeCells count="14">
     <mergeCell ref="A49:E49"/>
     <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
     <mergeCell ref="A25:E25"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
     <mergeCell ref="A37:E37"/>
     <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B43:D43"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A13:E13"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
